--- a/Tesztelés/CaveAdventure_tesztelés.xlsx
+++ b/Tesztelés/CaveAdventure_tesztelés.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="159">
   <si>
     <t>MainMenu</t>
   </si>
@@ -48,9 +48,6 @@
     <t>2. Teszt</t>
   </si>
   <si>
-    <t>Megnyitja a Scene(1)-et</t>
-  </si>
-  <si>
     <t>Megnyitotta a Scene(1)-et</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>Quit gomb  megnyomása</t>
   </si>
   <si>
-    <t>Megnyitja a Scene(2)-őt</t>
-  </si>
-  <si>
     <t>Megnyitotta a Scene(2)-őt</t>
   </si>
   <si>
@@ -78,9 +72,6 @@
     <t>Play gomb megnyomása</t>
   </si>
   <si>
-    <t>Megnyitja a Scene(3)-at</t>
-  </si>
-  <si>
     <t>Megnyitotta a Scene(3)-at</t>
   </si>
   <si>
@@ -96,9 +87,6 @@
     <t>3. Teszt</t>
   </si>
   <si>
-    <t>A' gomb lenyomása</t>
-  </si>
-  <si>
     <t>Balra megy a játékos</t>
   </si>
   <si>
@@ -111,15 +99,6 @@
     <t>8. Teszt</t>
   </si>
   <si>
-    <t>D' gomb lenyomása</t>
-  </si>
-  <si>
-    <t>W' gomb lenyomása</t>
-  </si>
-  <si>
-    <t>SPACE' gomb lenyomása</t>
-  </si>
-  <si>
     <t>Jobbra megy a játékos</t>
   </si>
   <si>
@@ -127,6 +106,396 @@
   </si>
   <si>
     <t>AttackArea aktiválódik, megjelenik a támadás grafika</t>
+  </si>
+  <si>
+    <t>"A" gomb lenyomása</t>
+  </si>
+  <si>
+    <t>"D" gomb lenyomása</t>
+  </si>
+  <si>
+    <t>"W" gomb lenyomása</t>
+  </si>
+  <si>
+    <t>"SPACE" gomb lenyomása</t>
+  </si>
+  <si>
+    <t>9. Teszt</t>
+  </si>
+  <si>
+    <t>10. Teszt</t>
+  </si>
+  <si>
+    <t>11. Teszt</t>
+  </si>
+  <si>
+    <t>12. Teszt</t>
+  </si>
+  <si>
+    <t>13. Teszt</t>
+  </si>
+  <si>
+    <t>14. Teszt</t>
+  </si>
+  <si>
+    <t>15. Teszt</t>
+  </si>
+  <si>
+    <t>16. Teszt</t>
+  </si>
+  <si>
+    <t>17. Teszt</t>
+  </si>
+  <si>
+    <t>18. Teszt</t>
+  </si>
+  <si>
+    <t>19. Teszt</t>
+  </si>
+  <si>
+    <t>20. Teszt</t>
+  </si>
+  <si>
+    <t>21. Teszt</t>
+  </si>
+  <si>
+    <t>22. Teszt</t>
+  </si>
+  <si>
+    <t>23. Teszt</t>
+  </si>
+  <si>
+    <t>"Dash" képesség felvétele</t>
+  </si>
+  <si>
+    <t>Eltűnik az objektum és a játékos képes lesz "dash"-elni</t>
+  </si>
+  <si>
+    <t>A játékos "dash"-el</t>
+  </si>
+  <si>
+    <t>"Double Jump" képesség felvétele</t>
+  </si>
+  <si>
+    <t>Eltűnik az objektum és a játékos tud duplán ugrani</t>
+  </si>
+  <si>
+    <t>"Wall Jump" képesség felvétele</t>
+  </si>
+  <si>
+    <t>Eltűnik az objektum és a játékos tud csúszni a falon és arról le ugrani</t>
+  </si>
+  <si>
+    <t>A játékos duplát urgik</t>
+  </si>
+  <si>
+    <t>"SPACE" gomb kétszer lenyomása "Double Jump" felvétele után</t>
+  </si>
+  <si>
+    <t>"LCtrl" lenyomása " "Dash" felvétele után</t>
+  </si>
+  <si>
+    <t>Falnak való ugrás "Wall Jump" felvétele után</t>
+  </si>
+  <si>
+    <t>A játékos lassabban csúszik le a falról</t>
+  </si>
+  <si>
+    <t>A játékos leugrik a falról</t>
+  </si>
+  <si>
+    <t>Falra ugrás után "SPACE" gomb lenyomása "Wall Jump" birtokában</t>
+  </si>
+  <si>
+    <t>"Checkpoint"-on való áthaladás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lemetni a játékos pozícióját, feltőlti maximumra a játékos életerejét és aktiválja a hozzá tartozó területek ellenfeleit </t>
+  </si>
+  <si>
+    <t>Láda megtámadása</t>
+  </si>
+  <si>
+    <t>Láda objektum eltűnik, pontokat spawn-ol</t>
+  </si>
+  <si>
+    <t>Ellenfél közel kerül a játékoshoz</t>
+  </si>
+  <si>
+    <t>Leveszi az adott mennyiséget a játékos életerejéből</t>
+  </si>
+  <si>
+    <t>Ellenfél megtámadása</t>
+  </si>
+  <si>
+    <t>Leveszi az ellenfél életerejéből a játékos sebzését</t>
+  </si>
+  <si>
+    <t>Ellenfél életereje 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ellenfél objektum eltűnik és pontokat spawn-ol </t>
+  </si>
+  <si>
+    <t>Játékos életereje 0</t>
+  </si>
+  <si>
+    <t>24. Teszt</t>
+  </si>
+  <si>
+    <t>25. Teszt</t>
+  </si>
+  <si>
+    <t>26. Teszt</t>
+  </si>
+  <si>
+    <t>27. Teszt</t>
+  </si>
+  <si>
+    <t>28. Teszt</t>
+  </si>
+  <si>
+    <t>29. Teszt</t>
+  </si>
+  <si>
+    <t>30. Teszt</t>
+  </si>
+  <si>
+    <t>31. Teszt</t>
+  </si>
+  <si>
+    <t>32. Teszt</t>
+  </si>
+  <si>
+    <t>Életerő fejlesztés felvétele</t>
+  </si>
+  <si>
+    <t>Támadás fejlesztés felvétele</t>
+  </si>
+  <si>
+    <t>20-al nő a maximum életerő és feltőlti, életerőt a maximumra és eltűnik az objektum</t>
+  </si>
+  <si>
+    <t>5-el nő a sebzés értéke és eltűnik az objektum</t>
+  </si>
+  <si>
+    <t>33. Teszt</t>
+  </si>
+  <si>
+    <t>Játékos sebződik</t>
+  </si>
+  <si>
+    <t>Lejebb megy az életereje és a "healthbar" telítettsége reflektálja</t>
+  </si>
+  <si>
+    <t>34. Teszt</t>
+  </si>
+  <si>
+    <t>Pont felvétele</t>
+  </si>
+  <si>
+    <t>A pont objektum elpusztul és a pont értéke hozzáadódik a pont számlálóhoz</t>
+  </si>
+  <si>
+    <t>35. Teszt</t>
+  </si>
+  <si>
+    <t>"Esc" lenyomása</t>
+  </si>
+  <si>
+    <t>Megállítja a játékot és feldobja a "pause menu"-t</t>
+  </si>
+  <si>
+    <t>36. Teszt</t>
+  </si>
+  <si>
+    <t>37. Teszt</t>
+  </si>
+  <si>
+    <t>"Pause menu"-ben "Resume" gomb megnyomása</t>
+  </si>
+  <si>
+    <t>"Pause menu"-ben "Quit to Main Menu" gomb megnyomása</t>
+  </si>
+  <si>
+    <t>Folytatja a játékot és eltűnik a "pause menu"</t>
+  </si>
+  <si>
+    <t>Betölti a "Scene (1)"-et</t>
+  </si>
+  <si>
+    <t>Megnyitja a "Scene(1)"-et</t>
+  </si>
+  <si>
+    <t>Megnyitja a "Scene(2)"-őt</t>
+  </si>
+  <si>
+    <t>Megnyitja a "Scene(3)"-at</t>
+  </si>
+  <si>
+    <t>Törhető fal megtámadása</t>
+  </si>
+  <si>
+    <t>Eltűnik a törhető fal</t>
+  </si>
+  <si>
+    <t>Játékos hozzá ér a tüskéhez</t>
+  </si>
+  <si>
+    <t>Meghal a játékos, vissza kerül a legútóbbi checkpoint által lementett pozícióra és vissza tölti a játékos életerejét maximumra</t>
+  </si>
+  <si>
+    <t>"MiniBoss" legyőzése</t>
+  </si>
+  <si>
+    <t>Eltűnik az "MiniBoss" objektum, pontokat és támadás fejlesztés "spawn"-ol</t>
+  </si>
+  <si>
+    <t>"Boss" legyőzése</t>
+  </si>
+  <si>
+    <t>Eltűnik a "Boss" objektum, pontokat spawnol és eltűnik mögötte a "BossWall"</t>
+  </si>
+  <si>
+    <t>A játékos belemegy a kijárat fénybe</t>
+  </si>
+  <si>
+    <t>Betölti a "Scene (4)"-et</t>
+  </si>
+  <si>
+    <t>Ellenfél iránya</t>
+  </si>
+  <si>
+    <t>A játékos irányába néz</t>
+  </si>
+  <si>
+    <t>A játékos belép az ellenfél "agro range"-ébe</t>
+  </si>
+  <si>
+    <t>Az ellenfél követni kezdi a játékost</t>
+  </si>
+  <si>
+    <t>A játékos kilép az ellenfél "agro range"-éből</t>
+  </si>
+  <si>
+    <t>Az ellenfél nem követi tovább a játékost</t>
+  </si>
+  <si>
+    <t>EndScreen</t>
+  </si>
+  <si>
+    <t>Betölt a jelenet</t>
+  </si>
+  <si>
+    <t>Kiirja a végső pontszámot</t>
+  </si>
+  <si>
+    <t>38. Teszt</t>
+  </si>
+  <si>
+    <t>39. Teszt</t>
+  </si>
+  <si>
+    <t>40. Teszt</t>
+  </si>
+  <si>
+    <t>41. Teszt</t>
+  </si>
+  <si>
+    <t>42. Teszt</t>
+  </si>
+  <si>
+    <t>43. Teszt</t>
+  </si>
+  <si>
+    <t>"Username Rules" be jelölése</t>
+  </si>
+  <si>
+    <t>"Username Rules" ki jelölése</t>
+  </si>
+  <si>
+    <t>Megjeleníti a felhasználónév megadásához tartozó szabályokat</t>
+  </si>
+  <si>
+    <t>Eltünteti a felhasználónév megadásához tartozó szabályokat</t>
+  </si>
+  <si>
+    <t>3 karaternél rövidebb név megadása, tesztnév: Ig</t>
+  </si>
+  <si>
+    <t>Megjeleníti az "invalid username" feliratot</t>
+  </si>
+  <si>
+    <t>9 karaternél hosszabb név megadása, tesztnév: Qwertzuiop</t>
+  </si>
+  <si>
+    <t>Speciális karatert tartalmazó név megadása, tesztnév: Speciális</t>
+  </si>
+  <si>
+    <t>Szóközt tartalmazó név megadása, tesztnév: Spa ce</t>
+  </si>
+  <si>
+    <t>44. Teszt</t>
+  </si>
+  <si>
+    <t>45. Teszt</t>
+  </si>
+  <si>
+    <t>46. Teszt</t>
+  </si>
+  <si>
+    <t>47. Teszt</t>
+  </si>
+  <si>
+    <t>48. Teszt</t>
+  </si>
+  <si>
+    <t>Minimum 3, maximum 9 karater hosszú megadott név szóköz és speciális karakter nélkül, tesztnév: RIV</t>
+  </si>
+  <si>
+    <t>Nem jelenik meg az "invalid username" felirat</t>
+  </si>
+  <si>
+    <t>"Save Highscore" gomb megnyomása ha aktív az "invalid username" felirat</t>
+  </si>
+  <si>
+    <t>Nem történik semmi</t>
+  </si>
+  <si>
+    <t>"Save Highscore" gomb megnyomása ha nem aktív az "invalid username" felirat, adatbázisban szereplő név esetén ha az új pontszám nem nagyobb a már adatbázisban szereplőnél</t>
+  </si>
+  <si>
+    <t>"Save Highscore" gomb megnyomása ha nem aktív az "invalid username" felirat, adatbázisban szereplő név esetén ha az új pontszám nagyobb a már adatbázisban szereplőnél</t>
+  </si>
+  <si>
+    <t>Betölti a "Scene (5)"-öt</t>
+  </si>
+  <si>
+    <t>Frissíti a névhez tartozó pontszámot az újra és betölti a "Scene (5)"-öt</t>
+  </si>
+  <si>
+    <t>49. Teszt</t>
+  </si>
+  <si>
+    <t>50. Teszt</t>
+  </si>
+  <si>
+    <t>"Save Highscore" gomb megnyomása ha nem aktív az "invalid username" felirat, adatbázisban nem szereplő név esetén</t>
+  </si>
+  <si>
+    <t>Rögzíti a játékos nevét és pontszámát az adatbázisba és betölti a "Scene (5)"-öt</t>
+  </si>
+  <si>
+    <t>Leaderboard</t>
+  </si>
+  <si>
+    <t>Kiírja az adatbázisban szereplő 5 legnagyobb pontszámmal rendelkező játékos nevét és pontszámát</t>
+  </si>
+  <si>
+    <t>"Quit" gomb megynomása</t>
+  </si>
+  <si>
+    <t>Bezárja a programot</t>
   </si>
 </sst>
 </file>
@@ -150,7 +519,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -158,23 +527,170 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -456,270 +972,810 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="B15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="B19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="12"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="12"/>
+    </row>
+    <row r="59" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>158</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A58:D58"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>